--- a/apps/backend/tests/test_files/test_one_step_2022_05_Май_2-12256-pentadal_forecast_bulletin.xlsx
+++ b/apps/backend/tests/test_files/test_one_step_2022_05_Май_2-12256-pentadal_forecast_bulletin.xlsx
@@ -2703,7 +2703,7 @@
       <c r="B8" s="21" t="inlineStr"/>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="D8" s="7" t="n"/>

--- a/apps/backend/tests/test_files/test_one_step_2022_05_Май_2-12256-pentadal_forecast_bulletin.xlsx
+++ b/apps/backend/tests/test_files/test_one_step_2022_05_Май_2-12256-pentadal_forecast_bulletin.xlsx
@@ -2594,12 +2594,12 @@
       </c>
       <c r="B4" s="21" t="inlineStr">
         <is>
-          <t>5,89</t>
+          <t>5,8900</t>
         </is>
       </c>
       <c r="C4" s="22" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>10,0100</t>
         </is>
       </c>
       <c r="D4" s="7" t="n"/>
@@ -2621,12 +2621,12 @@
       </c>
       <c r="B5" s="21" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>4,5340</t>
         </is>
       </c>
       <c r="C5" s="22" t="inlineStr">
         <is>
-          <t>10,5</t>
+          <t>10,4800</t>
         </is>
       </c>
       <c r="D5" s="7" t="n"/>
@@ -2648,12 +2648,12 @@
       </c>
       <c r="B6" s="21" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>2,1120</t>
         </is>
       </c>
       <c r="C6" s="22" t="inlineStr">
         <is>
-          <t>4,54</t>
+          <t>4,5400</t>
         </is>
       </c>
       <c r="D6" s="7" t="n"/>
@@ -2675,12 +2675,12 @@
       </c>
       <c r="B7" s="21" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>3,3420</t>
         </is>
       </c>
       <c r="C7" s="22" t="inlineStr">
         <is>
-          <t>13,6</t>
+          <t>13,6300</t>
         </is>
       </c>
       <c r="D7" s="7" t="n"/>
@@ -2703,7 +2703,7 @@
       <c r="B8" s="21" t="inlineStr"/>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>2,430</t>
         </is>
       </c>
       <c r="D8" s="7" t="n"/>

--- a/apps/backend/tests/test_files/test_one_step_2022_05_Май_2-12256-pentadal_forecast_bulletin.xlsx
+++ b/apps/backend/tests/test_files/test_one_step_2022_05_Май_2-12256-pentadal_forecast_bulletin.xlsx
@@ -2594,12 +2594,12 @@
       </c>
       <c r="B4" s="21" t="inlineStr">
         <is>
-          <t>5,8900</t>
+          <t>5,89</t>
         </is>
       </c>
       <c r="C4" s="22" t="inlineStr">
         <is>
-          <t>10,0100</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="D4" s="7" t="n"/>
@@ -2621,12 +2621,12 @@
       </c>
       <c r="B5" s="21" t="inlineStr">
         <is>
-          <t>4,5340</t>
+          <t>4,53</t>
         </is>
       </c>
       <c r="C5" s="22" t="inlineStr">
         <is>
-          <t>10,4800</t>
+          <t>10,5</t>
         </is>
       </c>
       <c r="D5" s="7" t="n"/>
@@ -2648,12 +2648,12 @@
       </c>
       <c r="B6" s="21" t="inlineStr">
         <is>
-          <t>2,1120</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="C6" s="22" t="inlineStr">
         <is>
-          <t>4,5400</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="D6" s="7" t="n"/>
@@ -2675,12 +2675,12 @@
       </c>
       <c r="B7" s="21" t="inlineStr">
         <is>
-          <t>3,3420</t>
+          <t>3,34</t>
         </is>
       </c>
       <c r="C7" s="22" t="inlineStr">
         <is>
-          <t>13,6300</t>
+          <t>13,6</t>
         </is>
       </c>
       <c r="D7" s="7" t="n"/>
@@ -2703,7 +2703,7 @@
       <c r="B8" s="21" t="inlineStr"/>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>2,430</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="D8" s="7" t="n"/>
